--- a/data/trans_camb/P54_A_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_3_R-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,79</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,13</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,72</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,41; -8,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,37; -6,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,1; -6,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,06; -2,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,24; -9,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,48; -6,18</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,1%</t>
         </is>
       </c>
     </row>
@@ -720,27 +720,27 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; -53,4</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-89,93; -20,48</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,33; -56,85</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,31</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,63</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,78; -12,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,08; -11,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,27; -17,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,86; -13,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,34; -15,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,83; -14,18</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-84,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,53%</t>
         </is>
       </c>
     </row>
@@ -876,27 +876,27 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -85,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -87,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,36; -69,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -92,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,37; -81,37</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,24</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,18</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,18</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,85; -9,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,28; -12,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,3; -15,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,82; -12,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,11; -14,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,98; -13,58</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,03%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,39%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,11%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -51,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,24; -81,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -87,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,28; -69,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,12; -72,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,92; -80,28</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,62</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,63</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; -8,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,71; -8,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,25; -19,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,06; -18,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,9; -15,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,01; -14,23</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-91,3%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -79,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,68; -75,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -91,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,34; -81,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,07; -90,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,62; -83,74</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,8</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,97</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,72</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,27; -10,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,58; -8,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,43; -14,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,67; -14,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,49; -13,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,1; -13,06</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-94,92%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,51%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-97,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-98,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-96,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,56%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -81,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,79; -68,69</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -89,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -88,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-99,02; -90,54</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,48; -86,14</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,56</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,17; -2,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,41; -1,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,43; 0,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,18; -3,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,97; -0,93</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,29; -2,96</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-90,25%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,13%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,12%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,32%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-88,85%</t>
         </is>
       </c>
     </row>
@@ -1500,27 +1500,27 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -14,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 92,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -47,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 10,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,84; -62,2</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,69</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,27</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,7</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,22</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,69</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,73</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,08; -11,54</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,73; -11,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,94; -15,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,57; -14,14</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,3; -14,11</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,26; -13,16</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,13%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,2%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,68%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,66%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,44%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-89,57%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,39 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,52; -85,58</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,23; -86,91</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-98,32; -87,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,63; -82,53</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,73; -90,06</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,15; -85,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
